--- a/docs/eDNA/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
+++ b/docs/eDNA/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA\example_output\Taxonomic_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3FD970-9883-4188-A073-94BDD94938E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19BD9B-3D41-48DB-98AA-F41CAA2B15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Species_name</t>
   </si>
@@ -31,16 +31,37 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Fundulus heteroclitus or majalis</t>
+  </si>
+  <si>
     <t>Cololabis saira</t>
   </si>
   <si>
-    <t>Pacific Saury</t>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Mareca americana</t>
+  </si>
+  <si>
+    <t>Myrophis vafer</t>
+  </si>
+  <si>
+    <t>Pacific worm eel</t>
   </si>
   <si>
     <t>Teleost Fish</t>
   </si>
   <si>
-    <t>Unassigned</t>
+    <t>American wigeon</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Mummichog or striped killifish</t>
+  </si>
+  <si>
+    <t>Pacific suary</t>
   </si>
 </sst>
 </file>
@@ -393,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="23.77734375" customWidth="1"/>
+    <col min="1" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -420,21 +441,54 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/eDNA/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
+++ b/docs/eDNA/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA\example_output\Taxonomic_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19BD9B-3D41-48DB-98AA-F41CAA2B15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F7E03E-4429-4950-97D3-476AEE4ACC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Species_name</t>
   </si>
@@ -31,6 +31,27 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
     <t>Fundulus heteroclitus or majalis</t>
   </si>
   <si>
@@ -46,22 +67,79 @@
     <t>Myrophis vafer</t>
   </si>
   <si>
+    <t>Pacific suary</t>
+  </si>
+  <si>
+    <t>Teleost Fish</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Chordata</t>
+  </si>
+  <si>
+    <t>Mummichog or striped killifish</t>
+  </si>
+  <si>
+    <t>American wigeon</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
     <t>Pacific worm eel</t>
   </si>
   <si>
-    <t>Teleost Fish</t>
-  </si>
-  <si>
-    <t>American wigeon</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Mummichog or striped killifish</t>
-  </si>
-  <si>
-    <t>Pacific suary</t>
+    <t>Teleostei</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Cyprinodontiformes</t>
+  </si>
+  <si>
+    <t>Fundulidae</t>
+  </si>
+  <si>
+    <t>Fundulus</t>
+  </si>
+  <si>
+    <t>Beloniformes</t>
+  </si>
+  <si>
+    <t>Scomberesocidae</t>
+  </si>
+  <si>
+    <t>Cololabis</t>
+  </si>
+  <si>
+    <t>saira</t>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>vafer</t>
+  </si>
+  <si>
+    <t>Anseriformes</t>
+  </si>
+  <si>
+    <t>Anatidae</t>
+  </si>
+  <si>
+    <t>Mareca</t>
+  </si>
+  <si>
+    <t>Anguilliformes</t>
+  </si>
+  <si>
+    <t>Ophichthidae</t>
+  </si>
+  <si>
+    <t>Myrophis</t>
   </si>
 </sst>
 </file>
@@ -414,18 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,60 +514,183 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
